--- a/data/MSME Country Indicators - Poland Summary.xlsx
+++ b/data/MSME Country Indicators - Poland Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>Poland</t>
   </si>
@@ -104,6 +104,60 @@
   </si>
   <si>
     <t>51.3</t>
+  </si>
+  <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>≤ €2 Millionlion (previously not defined)</t>
+  </si>
+  <si>
+    <t>≤ € 2 Millionlion</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>≤ €10 Millionlion (in 1996 €5 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 10 Millionlion</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>&lt;250</t>
+  </si>
+  <si>
+    <t>≤ €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 50 Millionlion</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;249</t>
+  </si>
+  <si>
+    <t>&gt; €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>&gt; € 50 Millionlion</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>
@@ -451,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -588,347 +642,414 @@
         <v>26</v>
       </c>
     </row>
+    <row r="23">
+      <c r="B23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
+      <c r="A24" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="0" t="s">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="B33" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="0" t="s">
+      <c r="C33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="E33" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="0" t="s">
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="C34" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D34" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E34" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="E38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B40" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>99</v>
+      <c r="A40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="E44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B45" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C45" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D45" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="E45" s="0" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="4" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
+      <c r="B46" s="0" t="s">
         <v>114</v>
       </c>
+      <c r="C46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>115</v>
+      <c r="A47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
-        <v>116</v>
+      <c r="A50" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>117</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A46" r:id="rId1"/>
+    <hyperlink ref="A52" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Poland Summary.xlsx
+++ b/data/MSME Country Indicators - Poland Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>Poland</t>
   </si>
@@ -406,19 +406,16 @@
     <t>Source:</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>SBS Main Indicators, Annual enterprise statistics by size class for special aggregates of activities (NACE Rev. 2)</t>
   </si>
   <si>
     <t>http://epp.eurostat.ec.europa.eu/portal/page/portal/european_business/data/database</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>SBS Eurostat</t>
-  </si>
-  <si>
-    <t>Sructural Business Statistics - Eurostat. NACE Rev.2. Available at http://epp.eurostat.ec.europa.eu/portal/page/portal/european_business/introduction</t>
   </si>
 </sst>
 </file>
@@ -505,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1028,29 +1025,31 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="2" t="s">
+    <row r="57">
+      <c r="A57" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>135</v>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A52" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - Poland Summary.xlsx
+++ b/data/MSME Country Indicators - Poland Summary.xlsx
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>39.5</t>
+    <t>37.68</t>
+  </si>
+  <si>
+    <t>1.77</t>
+  </si>
+  <si>
+    <t>39.46</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>36.2</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>68.7</t>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>32.54</t>
+  </si>
+  <si>
+    <t>68.73</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -82,10 +82,10 @@
     <t>Enterprises (% of total)</t>
   </si>
   <si>
-    <t>95.3</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>95.31</t>
+  </si>
+  <si>
+    <t>4.49</t>
   </si>
   <si>
     <t>99.8</t>
@@ -97,10 +97,10 @@
     <t>Value added to the economy (% of total)</t>
   </si>
   <si>
-    <t>16.4</t>
-  </si>
-  <si>
-    <t>34.9</t>
+    <t>16.42</t>
+  </si>
+  <si>
+    <t>34.88</t>
   </si>
   <si>
     <t>51.3</t>
